--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3421723.061951675</v>
+        <v>3526662.292127041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7831661.456698203</v>
+        <v>7847978.903758835</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>121.038990368774</v>
+        <v>4.140214173134825</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.51162448524637</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>192.1675620474791</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>295.7900285968462</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>217.6941418399121</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>260.6963593708892</v>
+        <v>26.40358694163569</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>171.6421529642015</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>194.1708171770717</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>37.22505513367559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>90.77911722021334</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>99.98993057842257</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1901,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>67.9789698179066</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>86.24032515900278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>173.105315459463</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788177961</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>124.6209519256082</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>188.9440068174794</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>23.05950344416363</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>140.9357387834181</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>48.15331591778345</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.07327741456153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>161.0175085755509</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>33.45472478221009</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>154.558651804717</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>27.0291980517616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912086</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2839.523069976995</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>896.0609183342544</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>727.1247354063476</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>577.0080959940118</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>429.0950024116187</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>429.0950024116187</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>261.1085377198973</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>112.3696395834035</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1733.185899555685</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>896.0609183342544</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>896.0609183342544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>772.6748442563987</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>765.7293435071953</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>350.0245932314841</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609169</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609169</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339055</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>483.0441129489466</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403937</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124868</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1160.681935312181</v>
+        <v>1284.213942944779</v>
       </c>
       <c r="V7" t="n">
-        <v>1160.681935312181</v>
+        <v>1029.529454738892</v>
       </c>
       <c r="W7" t="n">
-        <v>1160.681935312181</v>
+        <v>1029.529454738892</v>
       </c>
       <c r="X7" t="n">
-        <v>932.6923844141636</v>
+        <v>801.5399038408744</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.8998052706335</v>
+        <v>801.5399038408744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2201.7190780849</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C8" t="n">
-        <v>1832.756561144488</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="D8" t="n">
-        <v>1474.490862537737</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="E8" t="n">
-        <v>1088.702609939493</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>677.7167051498857</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>262.6442549948821</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4808,10 +4810,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410101</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2588.318918149022</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.1619238931563</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
         <v>772.5608581015648</v>
@@ -4951,13 +4953,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1332.315513242158</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1332.315513242158</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.944053934704</v>
+        <v>1332.315513242158</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.954503036686</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.1619238931563</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397187</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,28 +5530,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128888</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841094</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153953</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741617</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4517.069482196494</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4517.069482196494</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>4262.384993990608</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.777415831137</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C22" t="n">
-        <v>552.84123290323</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908941</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908941</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359455</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804907</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613768</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876678</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597607</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908941</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908941</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908941</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614379</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179076</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900021</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776664</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>443.4949469776664</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>443.4949469776664</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1242.848833509951</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1014.859282611934</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6451,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2304.603751475798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1251.82540160009</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2148.04349261611</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356194</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3807.864035926977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>4435.461999481584</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>4435.461999481584</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246301</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967232</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>551.2636521843874</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019943</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>256.4606111040839</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2413.170432285099</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1904.493740652238</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.7575184984</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.96493935487</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349513</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
         <v>317.6151975578601</v>
@@ -7603,16 +7605,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,19 +7788,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70.03064962107902</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>152.1477127454054</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>149.4264805093817</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>139.4693302300345</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6.726664722474339</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4693302300345</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.90318636666069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>97.57899151911155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5559695740487</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>40.0905472182265</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>100.4621571004289</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.506629716717924</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.5715612194345</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>12.68816929391079</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>685898.6756482064</v>
+        <v>694217.3741497055</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>685898.6756482064</v>
+        <v>694217.3741497055</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132548</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.235128108</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.235128108</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.200356756652</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756455</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756517</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756584</v>
+        <v>9337.200356756643</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756584</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-765739.2842926304</v>
+        <v>-584952.1925834041</v>
       </c>
       <c r="C6" t="n">
-        <v>563005.4614349613</v>
+        <v>529799.5909925153</v>
       </c>
       <c r="D6" t="n">
-        <v>563005.4614349613</v>
+        <v>370378.3209946231</v>
       </c>
       <c r="E6" t="n">
-        <v>310738.412725236</v>
+        <v>310738.4127252362</v>
       </c>
       <c r="F6" t="n">
+        <v>636150.8745325911</v>
+      </c>
+      <c r="G6" t="n">
+        <v>636150.8745325913</v>
+      </c>
+      <c r="H6" t="n">
+        <v>636150.8745325917</v>
+      </c>
+      <c r="I6" t="n">
+        <v>636150.8745325919</v>
+      </c>
+      <c r="J6" t="n">
+        <v>468545.6967226091</v>
+      </c>
+      <c r="K6" t="n">
         <v>636150.8745325918</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
+        <v>587856.9045244011</v>
+      </c>
+      <c r="M6" t="n">
+        <v>551095.8465970799</v>
+      </c>
+      <c r="N6" t="n">
+        <v>636150.8745325918</v>
+      </c>
+      <c r="O6" t="n">
         <v>636150.8745325916</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>636150.8745325918</v>
-      </c>
-      <c r="I6" t="n">
-        <v>636150.8745325917</v>
-      </c>
-      <c r="J6" t="n">
-        <v>418619.6721353141</v>
-      </c>
-      <c r="K6" t="n">
-        <v>636150.8745325916</v>
-      </c>
-      <c r="L6" t="n">
-        <v>636150.8745325917</v>
-      </c>
-      <c r="M6" t="n">
-        <v>551095.8465970797</v>
-      </c>
-      <c r="N6" t="n">
-        <v>636150.8745325913</v>
-      </c>
-      <c r="O6" t="n">
-        <v>636150.8745325914</v>
-      </c>
-      <c r="P6" t="n">
-        <v>636150.8745325913</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>228.201978348639</v>
+        <v>345.1007545442782</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>44.28497071865421</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>94.04427615813381</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5.228523965559191</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>152.036958838557</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>25.51547883472364</v>
+        <v>259.8235671795649</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>210.2882171080603</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>100.4369472102487</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>130.0217659649522</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.4327209853996</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>490.5075832355687</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>518.0009690113181</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9499448422518</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,7 +32326,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>487.5039436775321</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>361.1081696176612</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>161.7871425275307</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>270.4557004614709</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33980,19 +33982,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>576.0573465136306</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639531</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P42" t="n">
-        <v>353.3934907042769</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
@@ -34442,34 +34444,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>568.8264345569165</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>405.455331617202</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>373.1786946453892</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>351.9532034556946</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>386.6592569279849</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>71.39556506237764</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>57.65947400496658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>356.1622315941988</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>134.2025531565909</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>23.94570355317167</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>136.4812930471406</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37628,19 +37630,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962288</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P42" t="n">
-        <v>219.4190832899467</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>430.2720547770423</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3526662.292127041</v>
+        <v>3522566.650622275</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>107.3299163843313</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>4.140214173134825</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.51162448524637</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>100.6867690249409</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>82.84713108496571</v>
       </c>
       <c r="H5" t="n">
-        <v>295.7900285968462</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>26.40358694163569</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>23.9456372620864</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>171.6421529642015</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340841</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.77911722021334</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>116.4636264596498</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>99.98993057842257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>41.33703994143007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>18.50276072357057</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>67.9789698179066</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.105315459463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>188.9440068174794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,10 +2848,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>23.05950344416363</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.3950726440254</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>1.594095449514112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>48.15331591778345</v>
+        <v>137.1782748299192</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>33.45472478221009</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>154.558651804717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>20.88994825141629</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>1279.622812416483</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>910.6602954760713</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>552.3945968693208</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>166.6063442710766</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>159.6608435218731</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1973.513345802446</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>1973.513345802446</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>1279.622812416483</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300791</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>896.0609183342544</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>727.1247354063476</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>577.0080959940118</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>429.0950024116187</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>429.0950024116187</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>261.1085377198973</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>112.3696395834035</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269232</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.050469232272</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0609183342544</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>896.0609183342544</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1158.463096854643</v>
+        <v>1321.266375419619</v>
       </c>
       <c r="C5" t="n">
-        <v>1158.463096854643</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="D5" t="n">
-        <v>1158.463096854643</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="E5" t="n">
-        <v>772.6748442563987</v>
+        <v>208.2499072742128</v>
       </c>
       <c r="F5" t="n">
-        <v>765.7293435071953</v>
+        <v>201.3044065250094</v>
       </c>
       <c r="G5" t="n">
-        <v>350.0245932314841</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918765</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918765</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.062936918765</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>483.0441129489466</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.8914390106347</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8914390106347</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1284.213942944779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1029.529454738892</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1029.529454738892</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X7" t="n">
-        <v>801.5399038408744</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>801.5399038408744</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.52688261361</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1405.52688261361</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1405.52688261361</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761608</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.126722677732</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
         <v>922.6774975139006</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1332.315513242158</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1332.315513242158</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1332.315513242158</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1104.32596234414</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,22 +5536,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424045</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424045</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.4182386381636</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.848833509951</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1014.859282611934</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.0667034684034</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>634.334587849125</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>486.4214942667319</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473703</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194634</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7168,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,13 +7262,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2413.170432285099</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2193.56896730804</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7505,7 +7505,7 @@
         <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459586</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>612.4182386381636</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761984</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>197.0043242297717</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70.03064962107902</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>168.7434581780642</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.15184655856254</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>152.1477127454054</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>105.0969227051391</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>149.4264805093817</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.726664722474339</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>97.57899151911155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125.5559695740487</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>100.4621571004289</v>
+        <v>11.43719818829319</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.5715612194345</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>12.68816929391079</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>119.4047645948076</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544277</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551194</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756652</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-584952.1925834041</v>
       </c>
       <c r="C6" t="n">
-        <v>529799.5909925153</v>
+        <v>529799.5909925154</v>
       </c>
       <c r="D6" t="n">
-        <v>370378.3209946231</v>
+        <v>370378.3209946233</v>
       </c>
       <c r="E6" t="n">
-        <v>310738.4127252362</v>
+        <v>310391.0334708792</v>
       </c>
       <c r="F6" t="n">
-        <v>636150.8745325911</v>
+        <v>635803.4952782344</v>
       </c>
       <c r="G6" t="n">
-        <v>636150.8745325913</v>
+        <v>635803.4952782348</v>
       </c>
       <c r="H6" t="n">
-        <v>636150.8745325917</v>
+        <v>635803.4952782346</v>
       </c>
       <c r="I6" t="n">
-        <v>636150.8745325919</v>
+        <v>635803.4952782346</v>
       </c>
       <c r="J6" t="n">
-        <v>468545.6967226091</v>
+        <v>468198.3174682524</v>
       </c>
       <c r="K6" t="n">
-        <v>636150.8745325918</v>
+        <v>635803.4952782346</v>
       </c>
       <c r="L6" t="n">
-        <v>587856.9045244011</v>
+        <v>587509.5252700439</v>
       </c>
       <c r="M6" t="n">
-        <v>551095.8465970799</v>
+        <v>550748.4673427227</v>
       </c>
       <c r="N6" t="n">
-        <v>636150.8745325918</v>
+        <v>635803.4952782348</v>
       </c>
       <c r="O6" t="n">
-        <v>636150.8745325916</v>
+        <v>635803.4952782349</v>
       </c>
       <c r="P6" t="n">
-        <v>636150.8745325918</v>
+        <v>635803.4952782347</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>304.2177863886227</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,22 +27432,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>345.1007545442782</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>44.28497071865421</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>125.0228863640962</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328.7005716879883</v>
       </c>
       <c r="H5" t="n">
-        <v>5.228523965559191</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>259.8235671795649</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>262.5773610745046</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>210.2882171080603</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076273</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>195.4327209853996</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.444841250298201e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-5.545608445191735e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>490.5075832355687</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>487.5039436775321</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>161.7871425275307</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>576.0573465136306</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,19 +34216,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>405.455331617202</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>373.1786946453892</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>466.4238188159144</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556946</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L15" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>356.1622315941988</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36436,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>222.5537898377871</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>23.94570355317167</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>433.4611020691861</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3522566.650622275</v>
+        <v>3524327.180925061</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7847978.903758835</v>
+        <v>7847978.903758834</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>107.3299163843313</v>
+        <v>107.3299163843318</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>82.84713108496571</v>
+        <v>82.84713108496661</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.9456372620864</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695616</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428256</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>77.3950726440254</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>103.2360561910028</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>137.1782748299192</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4309,25 +4309,25 @@
         <v>1279.622812416483</v>
       </c>
       <c r="C2" t="n">
-        <v>910.6602954760713</v>
+        <v>910.6602954760717</v>
       </c>
       <c r="D2" t="n">
-        <v>552.3945968693208</v>
+        <v>552.3945968693213</v>
       </c>
       <c r="E2" t="n">
-        <v>166.6063442710766</v>
+        <v>166.606344271077</v>
       </c>
       <c r="F2" t="n">
-        <v>159.6608435218731</v>
+        <v>159.6608435218736</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4403,10 +4403,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4415,16 +4415,16 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507741</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4479,16 +4479,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1321.266375419619</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C5" t="n">
-        <v>952.3038584792075</v>
+        <v>952.3038584792084</v>
       </c>
       <c r="D5" t="n">
-        <v>594.0381598724571</v>
+        <v>594.038159872458</v>
       </c>
       <c r="E5" t="n">
-        <v>208.2499072742128</v>
+        <v>208.2499072742137</v>
       </c>
       <c r="F5" t="n">
-        <v>201.3044065250094</v>
+        <v>201.3044065250103</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,7 +4564,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4573,7 +4573,7 @@
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419619</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4719,22 +4719,22 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,43 +5044,43 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5187,16 +5187,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5269,40 +5269,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5503,13 +5503,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5983,22 +5983,22 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,28 +6147,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6685,7 +6685,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,28 +6697,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2342.684238942884</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>945.402603663004</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>776.4664207350971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7326,10 +7326,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>186.449012614385</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219413</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>71.22040037418695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>77.79022981064182</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.43719818829319</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="14">
@@ -26322,10 +26322,10 @@
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
@@ -26334,7 +26334,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132555</v>
@@ -26343,16 +26343,16 @@
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756655</v>
-      </c>
       <c r="K4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756652</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756632</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26527,43 +26527,43 @@
         <v>529799.5909925154</v>
       </c>
       <c r="D6" t="n">
-        <v>370378.3209946233</v>
+        <v>370378.3209946234</v>
       </c>
       <c r="E6" t="n">
-        <v>310391.0334708792</v>
+        <v>310703.6747998005</v>
       </c>
       <c r="F6" t="n">
-        <v>635803.4952782344</v>
+        <v>636116.1366071564</v>
       </c>
       <c r="G6" t="n">
-        <v>635803.4952782348</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="H6" t="n">
-        <v>635803.4952782346</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="I6" t="n">
-        <v>635803.4952782346</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="J6" t="n">
-        <v>468198.3174682524</v>
+        <v>468510.9587971738</v>
       </c>
       <c r="K6" t="n">
-        <v>635803.4952782346</v>
+        <v>636116.1366071558</v>
       </c>
       <c r="L6" t="n">
-        <v>587509.5252700439</v>
+        <v>587822.1665989654</v>
       </c>
       <c r="M6" t="n">
-        <v>550748.4673427227</v>
+        <v>551061.1086716439</v>
       </c>
       <c r="N6" t="n">
-        <v>635803.4952782348</v>
+        <v>636116.136607156</v>
       </c>
       <c r="O6" t="n">
-        <v>635803.4952782349</v>
+        <v>636116.1366071561</v>
       </c>
       <c r="P6" t="n">
-        <v>635803.4952782347</v>
+        <v>636116.136607156</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26971,16 +26971,16 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>304.2177863886227</v>
+        <v>304.2177863886222</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>328.7005716879883</v>
+        <v>328.7005716879873</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745046</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-5.674143175943373e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.444841250298201e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.545608445191735e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543346</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34783,7 +34783,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522352</v>
+        <v>484.1293732522357</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997564</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
